--- a/artfynd/A 3511-2023.xlsx
+++ b/artfynd/A 3511-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92231854</v>
+        <v>108415209</v>
       </c>
       <c r="B2" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Skatenskogen, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>668813.7819832751</v>
+        <v>669035.6441127005</v>
       </c>
       <c r="R2" t="n">
-        <v>6705779.112063986</v>
+        <v>6706115.064604912</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ingemar Södergren, Barbara Kühn, Julian Klein, Louis Mielke</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92231855</v>
+        <v>108415211</v>
       </c>
       <c r="B3" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skatenskogen, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>668764.0189416714</v>
+        <v>668952.4726062249</v>
       </c>
       <c r="R3" t="n">
-        <v>6705795.566670171</v>
+        <v>6706084.007164106</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ingemar Södergren, Barbara Kühn, Julian Klein, Louis Mielke</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92231853</v>
+        <v>108415210</v>
       </c>
       <c r="B4" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Skatenskogen, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>668819.8689593319</v>
+        <v>668964.6286571589</v>
       </c>
       <c r="R4" t="n">
-        <v>6705775.937335981</v>
+        <v>6706131.015868785</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ingemar Södergren, Barbara Kühn, Julian Klein, Louis Mielke</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108415209</v>
+        <v>108415170</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,34 +1032,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>..., Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>669035.6441127005</v>
+        <v>669045.2840127514</v>
       </c>
       <c r="R5" t="n">
-        <v>6706115.064604912</v>
+        <v>6706162.943860305</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,6 +1118,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108415211</v>
+        <v>108415206</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1168,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>668952.4726062249</v>
+        <v>669209.5994803488</v>
       </c>
       <c r="R6" t="n">
-        <v>6706084.007164106</v>
+        <v>6706225.957262815</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108415206</v>
+        <v>108415208</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1280,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>669209.5994803488</v>
+        <v>669171.637588384</v>
       </c>
       <c r="R7" t="n">
-        <v>6706225.957262815</v>
+        <v>6706286.4308879</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108415208</v>
+        <v>108415205</v>
       </c>
       <c r="B8" t="n">
         <v>98520</v>
@@ -1392,10 +1401,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>669171.637588384</v>
+        <v>669243.9638568971</v>
       </c>
       <c r="R8" t="n">
-        <v>6706286.4308879</v>
+        <v>6706189.523024754</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1473,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108415205</v>
+        <v>108415207</v>
       </c>
       <c r="B9" t="n">
         <v>98520</v>
@@ -1504,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>669243.9638568971</v>
+        <v>669176.7729262316</v>
       </c>
       <c r="R9" t="n">
-        <v>6706189.523024754</v>
+        <v>6706271.849970463</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1585,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108409856</v>
+        <v>108415202</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1612,17 +1621,17 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>668506.5236493029</v>
+        <v>669270.4582348154</v>
       </c>
       <c r="R10" t="n">
-        <v>6705660.536876176</v>
+        <v>6706056.873020063</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1676,19 +1685,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108415207</v>
+        <v>108415204</v>
       </c>
       <c r="B11" t="n">
         <v>98520</v>
@@ -1728,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>669176.7729262316</v>
+        <v>669262.2281218363</v>
       </c>
       <c r="R11" t="n">
-        <v>6706271.849970463</v>
+        <v>6706158.758182475</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108415202</v>
+        <v>92231854</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,34 +1825,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skatenskogen, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>669270.4582348154</v>
+        <v>668813.7819832751</v>
       </c>
       <c r="R12" t="n">
-        <v>6706056.873020063</v>
+        <v>6705779.112063986</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1870,7 +1879,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1889,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1900,22 +1909,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ingemar Södergren, Barbara Kühn, Julian Klein, Louis Mielke</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108415204</v>
+        <v>92231855</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,34 +1937,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skatenskogen, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>669262.2281218363</v>
+        <v>668764.0189416714</v>
       </c>
       <c r="R13" t="n">
-        <v>6706158.758182475</v>
+        <v>6705795.566670171</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,7 +1991,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,7 +2001,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2012,22 +2021,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ingemar Södergren, Barbara Kühn, Julian Klein, Louis Mielke</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108409858</v>
+        <v>92231853</v>
       </c>
       <c r="B14" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,37 +2049,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>Skatenskogen, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>668388.479731641</v>
+        <v>668819.8689593319</v>
       </c>
       <c r="R14" t="n">
-        <v>6705421.322440483</v>
+        <v>6705775.937335981</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2094,7 +2103,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2113,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2124,19 +2133,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ingemar Södergren, Barbara Kühn, Julian Klein, Louis Mielke</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108409853</v>
+        <v>108409856</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2176,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>668985.6790587006</v>
+        <v>668506.5236493029</v>
       </c>
       <c r="R15" t="n">
-        <v>6705807.392752416</v>
+        <v>6705660.536876176</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2248,10 +2257,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108409821</v>
+        <v>108409858</v>
       </c>
       <c r="B16" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2273,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>668583.1734774174</v>
+        <v>668388.479731641</v>
       </c>
       <c r="R16" t="n">
-        <v>6705693.752984518</v>
+        <v>6705421.322440483</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2360,7 +2369,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108409854</v>
+        <v>108409853</v>
       </c>
       <c r="B17" t="n">
         <v>98520</v>
@@ -2400,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>668626.4819316415</v>
+        <v>668985.6790587006</v>
       </c>
       <c r="R17" t="n">
-        <v>6705752.098212075</v>
+        <v>6705807.392752416</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2472,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108415198</v>
+        <v>108409821</v>
       </c>
       <c r="B18" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,37 +2497,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>668981.6375816888</v>
+        <v>668583.1734774174</v>
       </c>
       <c r="R18" t="n">
-        <v>6705904.539491506</v>
+        <v>6705693.752984518</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2572,19 +2581,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108415210</v>
+        <v>108409854</v>
       </c>
       <c r="B19" t="n">
         <v>98520</v>
@@ -2620,17 +2629,17 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>668964.6286571589</v>
+        <v>668626.4819316415</v>
       </c>
       <c r="R19" t="n">
-        <v>6706131.015868785</v>
+        <v>6705752.098212075</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2684,19 +2693,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108409852</v>
+        <v>108415198</v>
       </c>
       <c r="B20" t="n">
         <v>98520</v>
@@ -2732,17 +2741,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>668972.9605770472</v>
+        <v>668981.6375816888</v>
       </c>
       <c r="R20" t="n">
-        <v>6705857.196229734</v>
+        <v>6705904.539491506</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2796,22 +2805,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108415170</v>
+        <v>108409852</v>
       </c>
       <c r="B21" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,45 +2833,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>669045.2840127514</v>
+        <v>668972.9605770472</v>
       </c>
       <c r="R21" t="n">
-        <v>6706162.943860305</v>
+        <v>6705857.196229734</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2910,19 +2911,18 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
